--- a/contatos_2M.xlsx
+++ b/contatos_2M.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gbrody/Documents/GitHub/pages/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gbrody/Documents/GitHub/duas-marias.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BD4F33-6EB5-3E43-8365-CD968B31FAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A193D9B-69E9-7A41-8AA9-61227E4CD3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{33D6FB68-6D31-1443-803B-688E6F2EB89B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="795">
   <si>
     <t>Tipo de Prestador</t>
   </si>
@@ -2416,6 +2416,16 @@
   </si>
   <si>
     <t>João</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>(19) 98919-7770
+(19) 9893-16000</t>
+  </si>
+  <si>
+    <t>Angel</t>
   </si>
 </sst>
 </file>
@@ -2865,12 +2875,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1FBE39-8056-EC4D-B03E-1E0887E8D8D8}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:G303"/>
+  <dimension ref="A1:G305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A284" sqref="A284"/>
+      <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G305" sqref="G305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2906,7 +2915,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>767</v>
       </c>
@@ -2925,7 +2934,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2944,7 +2953,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -2963,7 +2972,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -2984,7 +2993,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -3007,7 +3016,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -3026,7 +3035,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -3047,7 +3056,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -3066,7 +3075,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -3087,7 +3096,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
@@ -3106,7 +3115,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -3127,7 +3136,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -3144,7 +3153,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>44</v>
       </c>
@@ -3163,7 +3172,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>47</v>
       </c>
@@ -3182,7 +3191,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>50</v>
       </c>
@@ -3205,7 +3214,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -3220,7 +3229,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
@@ -3239,7 +3248,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>50</v>
       </c>
@@ -3256,7 +3265,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
@@ -3273,7 +3282,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>60</v>
       </c>
@@ -3288,7 +3297,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>63</v>
       </c>
@@ -3309,7 +3318,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>63</v>
       </c>
@@ -3330,7 +3339,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>63</v>
       </c>
@@ -3349,7 +3358,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>63</v>
       </c>
@@ -3368,7 +3377,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>63</v>
       </c>
@@ -3383,7 +3392,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>75</v>
       </c>
@@ -3404,7 +3413,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>762</v>
       </c>
@@ -3427,7 +3436,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>83</v>
       </c>
@@ -3448,7 +3457,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>87</v>
       </c>
@@ -3469,7 +3478,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>90</v>
       </c>
@@ -3490,7 +3499,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>90</v>
       </c>
@@ -3511,7 +3520,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>96</v>
       </c>
@@ -3530,7 +3539,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>96</v>
       </c>
@@ -3553,7 +3562,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>96</v>
       </c>
@@ -3572,7 +3581,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>98</v>
       </c>
@@ -3591,7 +3600,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>101</v>
       </c>
@@ -3612,7 +3621,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>98</v>
       </c>
@@ -3631,7 +3640,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>98</v>
       </c>
@@ -3650,7 +3659,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>98</v>
       </c>
@@ -3669,7 +3678,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>98</v>
       </c>
@@ -3690,7 +3699,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>117</v>
       </c>
@@ -3707,7 +3716,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>120</v>
       </c>
@@ -3726,7 +3735,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>123</v>
       </c>
@@ -3749,7 +3758,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>128</v>
       </c>
@@ -3770,7 +3779,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>132</v>
       </c>
@@ -3791,7 +3800,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>132</v>
       </c>
@@ -3810,7 +3819,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>138</v>
       </c>
@@ -3829,7 +3838,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>774</v>
       </c>
@@ -3848,7 +3857,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>774</v>
       </c>
@@ -3867,7 +3876,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>775</v>
       </c>
@@ -3888,7 +3897,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>775</v>
       </c>
@@ -3907,7 +3916,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="26" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>773</v>
       </c>
@@ -3928,7 +3937,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="26" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>773</v>
       </c>
@@ -3949,7 +3958,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="26" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>773</v>
       </c>
@@ -3966,7 +3975,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>140</v>
       </c>
@@ -3985,7 +3994,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>140</v>
       </c>
@@ -4006,7 +4015,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>146</v>
       </c>
@@ -4025,7 +4034,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>146</v>
       </c>
@@ -4044,7 +4053,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>151</v>
       </c>
@@ -4067,7 +4076,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>151</v>
       </c>
@@ -4088,7 +4097,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>151</v>
       </c>
@@ -4107,7 +4116,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>151</v>
       </c>
@@ -4128,7 +4137,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>161</v>
       </c>
@@ -4149,7 +4158,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="26" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>168</v>
       </c>
@@ -4166,7 +4175,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>168</v>
       </c>
@@ -4181,7 +4190,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>171</v>
       </c>
@@ -4200,7 +4209,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>174</v>
       </c>
@@ -4221,7 +4230,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>178</v>
       </c>
@@ -4240,7 +4249,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>178</v>
       </c>
@@ -4263,7 +4272,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>184</v>
       </c>
@@ -4286,7 +4295,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>184</v>
       </c>
@@ -4307,7 +4316,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>184</v>
       </c>
@@ -4326,7 +4335,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>184</v>
       </c>
@@ -4365,7 +4374,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>202</v>
       </c>
@@ -4382,7 +4391,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>203</v>
       </c>
@@ -4401,7 +4410,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>203</v>
       </c>
@@ -4420,7 +4429,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>203</v>
       </c>
@@ -4439,7 +4448,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>203</v>
       </c>
@@ -4458,7 +4467,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>208</v>
       </c>
@@ -4479,7 +4488,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>212</v>
       </c>
@@ -4500,7 +4509,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>226</v>
       </c>
@@ -4521,7 +4530,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>229</v>
       </c>
@@ -4540,7 +4549,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>232</v>
       </c>
@@ -4561,7 +4570,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>239</v>
       </c>
@@ -4578,7 +4587,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>236</v>
       </c>
@@ -4595,7 +4604,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>241</v>
       </c>
@@ -4612,7 +4621,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="26" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>243</v>
       </c>
@@ -4631,7 +4640,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>246</v>
       </c>
@@ -4650,7 +4659,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>246</v>
       </c>
@@ -4669,7 +4678,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>246</v>
       </c>
@@ -4688,7 +4697,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>251</v>
       </c>
@@ -4707,7 +4716,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>251</v>
       </c>
@@ -4726,7 +4735,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>257</v>
       </c>
@@ -4747,7 +4756,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>261</v>
       </c>
@@ -4766,7 +4775,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>261</v>
       </c>
@@ -4787,7 +4796,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>261</v>
       </c>
@@ -4806,7 +4815,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>261</v>
       </c>
@@ -4827,7 +4836,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>261</v>
       </c>
@@ -4848,7 +4857,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>261</v>
       </c>
@@ -4867,7 +4876,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>261</v>
       </c>
@@ -4886,7 +4895,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>261</v>
       </c>
@@ -4907,7 +4916,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>281</v>
       </c>
@@ -4928,7 +4937,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>283</v>
       </c>
@@ -4949,7 +4958,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>285</v>
       </c>
@@ -4968,7 +4977,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>291</v>
       </c>
@@ -4987,7 +4996,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>291</v>
       </c>
@@ -5006,7 +5015,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>291</v>
       </c>
@@ -5027,7 +5036,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>291</v>
       </c>
@@ -5046,7 +5055,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>288</v>
       </c>
@@ -5065,7 +5074,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>288</v>
       </c>
@@ -5084,7 +5093,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>288</v>
       </c>
@@ -5105,7 +5114,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>288</v>
       </c>
@@ -5124,7 +5133,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>305</v>
       </c>
@@ -5141,7 +5150,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>305</v>
       </c>
@@ -5162,7 +5171,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>307</v>
       </c>
@@ -5183,7 +5192,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>307</v>
       </c>
@@ -5202,7 +5211,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>315</v>
       </c>
@@ -5221,7 +5230,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>318</v>
       </c>
@@ -5240,7 +5249,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>320</v>
       </c>
@@ -5257,7 +5266,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>322</v>
       </c>
@@ -5276,7 +5285,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>322</v>
       </c>
@@ -5297,7 +5306,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>322</v>
       </c>
@@ -5318,7 +5327,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>322</v>
       </c>
@@ -5337,7 +5346,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>322</v>
       </c>
@@ -5358,7 +5367,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>322</v>
       </c>
@@ -5379,7 +5388,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>322</v>
       </c>
@@ -5400,7 +5409,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>336</v>
       </c>
@@ -5419,7 +5428,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>777</v>
       </c>
@@ -5440,7 +5449,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>777</v>
       </c>
@@ -5461,7 +5470,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>338</v>
       </c>
@@ -5480,7 +5489,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>338</v>
       </c>
@@ -5499,7 +5508,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>338</v>
       </c>
@@ -5520,7 +5529,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>352</v>
       </c>
@@ -5539,7 +5548,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>352</v>
       </c>
@@ -5560,7 +5569,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>352</v>
       </c>
@@ -5581,7 +5590,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>352</v>
       </c>
@@ -5602,7 +5611,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>352</v>
       </c>
@@ -5623,7 +5632,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>352</v>
       </c>
@@ -5644,7 +5653,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>348</v>
       </c>
@@ -5667,7 +5676,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>367</v>
       </c>
@@ -5688,7 +5697,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>370</v>
       </c>
@@ -5709,7 +5718,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>377</v>
       </c>
@@ -5726,7 +5735,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>377</v>
       </c>
@@ -5743,7 +5752,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>377</v>
       </c>
@@ -5762,7 +5771,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>381</v>
       </c>
@@ -5783,7 +5792,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>381</v>
       </c>
@@ -5802,7 +5811,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>384</v>
       </c>
@@ -5825,7 +5834,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>390</v>
       </c>
@@ -5844,7 +5853,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" ht="26" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>393</v>
       </c>
@@ -5861,7 +5870,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>395</v>
       </c>
@@ -5882,7 +5891,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>398</v>
       </c>
@@ -5901,7 +5910,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>398</v>
       </c>
@@ -5922,7 +5931,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>398</v>
       </c>
@@ -5943,7 +5952,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>398</v>
       </c>
@@ -5981,7 +5990,7 @@
       <c r="F157" s="2"/>
       <c r="G157" s="11"/>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>411</v>
       </c>
@@ -6002,7 +6011,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>414</v>
       </c>
@@ -6021,7 +6030,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>416</v>
       </c>
@@ -6040,7 +6049,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>419</v>
       </c>
@@ -6061,7 +6070,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>423</v>
       </c>
@@ -6082,7 +6091,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>782</v>
       </c>
@@ -6099,7 +6108,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>783</v>
       </c>
@@ -6120,7 +6129,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>427</v>
       </c>
@@ -6143,7 +6152,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>432</v>
       </c>
@@ -6164,7 +6173,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>432</v>
       </c>
@@ -6187,7 +6196,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>440</v>
       </c>
@@ -6206,7 +6215,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>442</v>
       </c>
@@ -6229,7 +6238,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>442</v>
       </c>
@@ -6246,7 +6255,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>442</v>
       </c>
@@ -6265,7 +6274,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>445</v>
       </c>
@@ -6286,7 +6295,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>445</v>
       </c>
@@ -6303,7 +6312,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>448</v>
       </c>
@@ -6324,7 +6333,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>452</v>
       </c>
@@ -6345,7 +6354,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>455</v>
       </c>
@@ -6366,7 +6375,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>455</v>
       </c>
@@ -6383,7 +6392,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" ht="26" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>784</v>
       </c>
@@ -6404,7 +6413,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>779</v>
       </c>
@@ -6425,7 +6434,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>461</v>
       </c>
@@ -6444,7 +6453,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>463</v>
       </c>
@@ -6465,7 +6474,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>463</v>
       </c>
@@ -6484,7 +6493,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" ht="26" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>463</v>
       </c>
@@ -6503,7 +6512,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>463</v>
       </c>
@@ -6522,7 +6531,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>778</v>
       </c>
@@ -6543,7 +6552,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>468</v>
       </c>
@@ -6560,7 +6569,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>468</v>
       </c>
@@ -6581,7 +6590,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>468</v>
       </c>
@@ -6602,7 +6611,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>477</v>
       </c>
@@ -6621,7 +6630,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>477</v>
       </c>
@@ -6642,7 +6651,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>482</v>
       </c>
@@ -6657,7 +6666,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>484</v>
       </c>
@@ -6678,7 +6687,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>487</v>
       </c>
@@ -6695,7 +6704,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>487</v>
       </c>
@@ -6714,7 +6723,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>487</v>
       </c>
@@ -6733,7 +6742,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>492</v>
       </c>
@@ -6756,7 +6765,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>496</v>
       </c>
@@ -6773,7 +6782,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>503</v>
       </c>
@@ -6794,7 +6803,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>499</v>
       </c>
@@ -6815,7 +6824,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>506</v>
       </c>
@@ -6838,7 +6847,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>511</v>
       </c>
@@ -6857,7 +6866,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>511</v>
       </c>
@@ -6876,7 +6885,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>514</v>
       </c>
@@ -6895,7 +6904,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>519</v>
       </c>
@@ -6916,7 +6925,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>523</v>
       </c>
@@ -6937,7 +6946,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>527</v>
       </c>
@@ -6956,7 +6965,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>529</v>
       </c>
@@ -6977,7 +6986,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>531</v>
       </c>
@@ -6998,7 +7007,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>533</v>
       </c>
@@ -7015,7 +7024,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>533</v>
       </c>
@@ -7034,7 +7043,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>536</v>
       </c>
@@ -7055,7 +7064,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>538</v>
       </c>
@@ -7078,7 +7087,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>542</v>
       </c>
@@ -7095,7 +7104,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>544</v>
       </c>
@@ -7116,7 +7125,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>544</v>
       </c>
@@ -7137,7 +7146,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>550</v>
       </c>
@@ -7158,7 +7167,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>553</v>
       </c>
@@ -7177,7 +7186,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>553</v>
       </c>
@@ -7198,7 +7207,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>558</v>
       </c>
@@ -7215,7 +7224,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>561</v>
       </c>
@@ -7236,7 +7245,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>787</v>
       </c>
@@ -7253,7 +7262,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>568</v>
       </c>
@@ -7272,7 +7281,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>570</v>
       </c>
@@ -7291,7 +7300,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>571</v>
       </c>
@@ -7310,7 +7319,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>587</v>
       </c>
@@ -7331,7 +7340,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>584</v>
       </c>
@@ -7350,7 +7359,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>590</v>
       </c>
@@ -7371,7 +7380,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>780</v>
       </c>
@@ -7392,7 +7401,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>593</v>
       </c>
@@ -7411,7 +7420,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>593</v>
       </c>
@@ -7430,7 +7439,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>593</v>
       </c>
@@ -7449,7 +7458,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>593</v>
       </c>
@@ -7468,7 +7477,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>598</v>
       </c>
@@ -7487,7 +7496,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>600</v>
       </c>
@@ -7506,7 +7515,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>603</v>
       </c>
@@ -7527,7 +7536,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>603</v>
       </c>
@@ -7548,7 +7557,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>609</v>
       </c>
@@ -7569,7 +7578,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>613</v>
       </c>
@@ -7588,7 +7597,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>616</v>
       </c>
@@ -7609,7 +7618,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>616</v>
       </c>
@@ -7630,7 +7639,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>621</v>
       </c>
@@ -7653,7 +7662,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>625</v>
       </c>
@@ -7672,7 +7681,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>625</v>
       </c>
@@ -7691,7 +7700,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>625</v>
       </c>
@@ -7710,7 +7719,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>629</v>
       </c>
@@ -7729,7 +7738,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>629</v>
       </c>
@@ -7748,7 +7757,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>629</v>
       </c>
@@ -7765,7 +7774,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>629</v>
       </c>
@@ -7784,7 +7793,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>629</v>
       </c>
@@ -7803,7 +7812,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>629</v>
       </c>
@@ -7822,7 +7831,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>631</v>
       </c>
@@ -7841,7 +7850,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>631</v>
       </c>
@@ -7858,7 +7867,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>645</v>
       </c>
@@ -7877,7 +7886,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>643</v>
       </c>
@@ -7894,7 +7903,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>649</v>
       </c>
@@ -7913,7 +7922,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>781</v>
       </c>
@@ -7932,7 +7941,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>781</v>
       </c>
@@ -7951,7 +7960,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>781</v>
       </c>
@@ -7972,7 +7981,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>781</v>
       </c>
@@ -7993,7 +8002,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>781</v>
       </c>
@@ -8030,7 +8039,7 @@
       </c>
       <c r="F261" s="2"/>
     </row>
-    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>660</v>
       </c>
@@ -8049,7 +8058,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" ht="39" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>789</v>
       </c>
@@ -8064,7 +8073,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>662</v>
       </c>
@@ -8085,7 +8094,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>666</v>
       </c>
@@ -8108,7 +8117,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>666</v>
       </c>
@@ -8129,7 +8138,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>673</v>
       </c>
@@ -8148,7 +8157,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>673</v>
       </c>
@@ -8165,7 +8174,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>677</v>
       </c>
@@ -8188,7 +8197,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>681</v>
       </c>
@@ -8207,7 +8216,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>686</v>
       </c>
@@ -8228,7 +8237,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>684</v>
       </c>
@@ -8247,7 +8256,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>684</v>
       </c>
@@ -8268,7 +8277,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>684</v>
       </c>
@@ -8287,7 +8296,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
         <v>684</v>
       </c>
@@ -8310,7 +8319,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
         <v>684</v>
       </c>
@@ -8329,7 +8338,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
         <v>684</v>
       </c>
@@ -8348,7 +8357,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
         <v>684</v>
       </c>
@@ -8369,7 +8378,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>700</v>
       </c>
@@ -8392,7 +8401,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>785</v>
       </c>
@@ -8413,7 +8422,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>785</v>
       </c>
@@ -8436,7 +8445,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>785</v>
       </c>
@@ -8455,7 +8464,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
         <v>785</v>
       </c>
@@ -8494,7 +8503,7 @@
       </c>
       <c r="F284" s="2"/>
     </row>
-    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>715</v>
       </c>
@@ -8515,7 +8524,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
         <v>715</v>
       </c>
@@ -8536,7 +8545,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" ht="26" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
         <v>715</v>
       </c>
@@ -8546,8 +8555,8 @@
       <c r="C287" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="D287" s="6">
-        <v>19989197770</v>
+      <c r="D287" s="6" t="s">
+        <v>793</v>
       </c>
       <c r="E287" s="2" t="s">
         <v>7</v>
@@ -8557,7 +8566,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>718</v>
       </c>
@@ -8578,7 +8587,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>721</v>
       </c>
@@ -8599,7 +8608,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
         <v>721</v>
       </c>
@@ -8618,7 +8627,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
         <v>727</v>
       </c>
@@ -8637,7 +8646,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
         <v>729</v>
       </c>
@@ -8656,7 +8665,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
         <v>729</v>
       </c>
@@ -8675,7 +8684,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
         <v>738</v>
       </c>
@@ -8694,7 +8703,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>734</v>
       </c>
@@ -8715,7 +8724,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
         <v>734</v>
       </c>
@@ -8734,7 +8743,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
         <v>742</v>
       </c>
@@ -8755,7 +8764,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
         <v>747</v>
       </c>
@@ -8776,7 +8785,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
         <v>744</v>
       </c>
@@ -8795,7 +8804,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
         <v>744</v>
       </c>
@@ -8814,7 +8823,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
         <v>751</v>
       </c>
@@ -8833,7 +8842,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
         <v>753</v>
       </c>
@@ -8866,15 +8875,42 @@
       <c r="E303" s="2"/>
       <c r="F303" s="2"/>
     </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A304" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C304" s="2"/>
+      <c r="D304" s="6">
+        <v>19994106988</v>
+      </c>
+      <c r="E304" s="2"/>
+      <c r="F304" s="2"/>
+      <c r="G304" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A305" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="C305" s="2"/>
+      <c r="D305" s="6">
+        <v>19989645385</v>
+      </c>
+      <c r="E305" s="2"/>
+      <c r="F305" s="2"/>
+      <c r="G305" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G303" xr:uid="{FD1FBE39-8056-EC4D-B03E-1E0887E8D8D8}">
-    <filterColumn colId="6">
-      <filters blank="1"/>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G303">
-      <sortCondition ref="A1:A303"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:G303" xr:uid="{FD1FBE39-8056-EC4D-B03E-1E0887E8D8D8}"/>
   <hyperlinks>
     <hyperlink ref="B151" r:id="rId1" xr:uid="{4AB0140F-26E7-3941-86AF-41D13D5FBE3B}"/>
   </hyperlinks>

--- a/contatos_2M.xlsx
+++ b/contatos_2M.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gbrody/Documents/GitHub/duas-marias.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A193D9B-69E9-7A41-8AA9-61227E4CD3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C73226D-37BA-7645-8205-A7A5F9E888F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{33D6FB68-6D31-1443-803B-688E6F2EB89B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$303</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$306</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="797">
   <si>
     <t>Tipo de Prestador</t>
   </si>
@@ -2426,6 +2426,12 @@
   </si>
   <si>
     <t>Angel</t>
+  </si>
+  <si>
+    <t>Isael</t>
+  </si>
+  <si>
+    <t>Thais</t>
   </si>
 </sst>
 </file>
@@ -2875,11 +2881,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1FBE39-8056-EC4D-B03E-1E0887E8D8D8}">
-  <dimension ref="A1:G305"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G305" sqref="G305"/>
+      <selection pane="bottomLeft" activeCell="G307" sqref="G307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2915,7 +2922,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>767</v>
       </c>
@@ -2934,7 +2941,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2953,7 +2960,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -2972,7 +2979,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -2993,7 +3000,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -3016,7 +3023,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -3035,7 +3042,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -3056,7 +3063,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -3075,7 +3082,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -3096,7 +3103,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
@@ -3115,7 +3122,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -3136,7 +3143,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -3153,7 +3160,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>44</v>
       </c>
@@ -3172,7 +3179,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>47</v>
       </c>
@@ -3191,7 +3198,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>50</v>
       </c>
@@ -3214,7 +3221,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -3229,7 +3236,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
@@ -3248,7 +3255,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>50</v>
       </c>
@@ -3265,7 +3272,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
@@ -3282,7 +3289,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>60</v>
       </c>
@@ -3297,7 +3304,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>63</v>
       </c>
@@ -3318,7 +3325,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>63</v>
       </c>
@@ -3339,7 +3346,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>63</v>
       </c>
@@ -3358,7 +3365,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>63</v>
       </c>
@@ -3377,7 +3384,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>63</v>
       </c>
@@ -3392,7 +3399,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>75</v>
       </c>
@@ -3413,7 +3420,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>762</v>
       </c>
@@ -3436,7 +3443,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>83</v>
       </c>
@@ -3457,7 +3464,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>87</v>
       </c>
@@ -3478,7 +3485,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>90</v>
       </c>
@@ -3499,7 +3506,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>90</v>
       </c>
@@ -3520,7 +3527,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>96</v>
       </c>
@@ -3539,7 +3546,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>96</v>
       </c>
@@ -3562,7 +3569,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>96</v>
       </c>
@@ -3581,7 +3588,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>98</v>
       </c>
@@ -3600,7 +3607,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>101</v>
       </c>
@@ -3621,7 +3628,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>98</v>
       </c>
@@ -3640,7 +3647,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>98</v>
       </c>
@@ -3659,7 +3666,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>98</v>
       </c>
@@ -3678,7 +3685,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>98</v>
       </c>
@@ -3699,7 +3706,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>117</v>
       </c>
@@ -3716,7 +3723,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>120</v>
       </c>
@@ -3735,7 +3742,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>123</v>
       </c>
@@ -3758,7 +3765,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>128</v>
       </c>
@@ -3779,7 +3786,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>132</v>
       </c>
@@ -3800,7 +3807,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>132</v>
       </c>
@@ -3819,7 +3826,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>138</v>
       </c>
@@ -3838,7 +3845,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>774</v>
       </c>
@@ -3857,7 +3864,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>774</v>
       </c>
@@ -3876,7 +3883,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>775</v>
       </c>
@@ -3897,7 +3904,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>775</v>
       </c>
@@ -3916,7 +3923,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>773</v>
       </c>
@@ -3937,7 +3944,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>773</v>
       </c>
@@ -3958,7 +3965,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>773</v>
       </c>
@@ -3975,7 +3982,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>140</v>
       </c>
@@ -3994,7 +4001,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>140</v>
       </c>
@@ -4015,7 +4022,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>146</v>
       </c>
@@ -4034,7 +4041,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>146</v>
       </c>
@@ -4053,7 +4060,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>151</v>
       </c>
@@ -4076,7 +4083,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>151</v>
       </c>
@@ -4097,7 +4104,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>151</v>
       </c>
@@ -4116,7 +4123,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>151</v>
       </c>
@@ -4137,7 +4144,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>161</v>
       </c>
@@ -4158,7 +4165,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>168</v>
       </c>
@@ -4175,7 +4182,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>168</v>
       </c>
@@ -4190,7 +4197,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>171</v>
       </c>
@@ -4209,7 +4216,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>174</v>
       </c>
@@ -4230,7 +4237,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>178</v>
       </c>
@@ -4249,7 +4256,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>178</v>
       </c>
@@ -4272,7 +4279,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>184</v>
       </c>
@@ -4295,7 +4302,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>184</v>
       </c>
@@ -4316,7 +4323,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>184</v>
       </c>
@@ -4335,7 +4342,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>184</v>
       </c>
@@ -4356,7 +4363,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>197</v>
       </c>
@@ -4374,7 +4381,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>202</v>
       </c>
@@ -4391,7 +4398,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>203</v>
       </c>
@@ -4410,7 +4417,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>203</v>
       </c>
@@ -4429,7 +4436,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>203</v>
       </c>
@@ -4448,7 +4455,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>203</v>
       </c>
@@ -4467,7 +4474,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>208</v>
       </c>
@@ -4488,7 +4495,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>212</v>
       </c>
@@ -4509,7 +4516,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>226</v>
       </c>
@@ -4530,7 +4537,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>229</v>
       </c>
@@ -4549,7 +4556,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>232</v>
       </c>
@@ -4570,7 +4577,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>239</v>
       </c>
@@ -4587,7 +4594,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>236</v>
       </c>
@@ -4604,7 +4611,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>241</v>
       </c>
@@ -4621,7 +4628,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>243</v>
       </c>
@@ -4640,7 +4647,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>246</v>
       </c>
@@ -4659,7 +4666,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>246</v>
       </c>
@@ -4678,7 +4685,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>246</v>
       </c>
@@ -4697,7 +4704,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>251</v>
       </c>
@@ -4716,7 +4723,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>251</v>
       </c>
@@ -4735,7 +4742,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>257</v>
       </c>
@@ -4756,7 +4763,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>261</v>
       </c>
@@ -4775,7 +4782,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>261</v>
       </c>
@@ -4796,7 +4803,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>261</v>
       </c>
@@ -4815,7 +4822,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>261</v>
       </c>
@@ -4836,7 +4843,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>261</v>
       </c>
@@ -4857,7 +4864,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>261</v>
       </c>
@@ -4876,7 +4883,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>261</v>
       </c>
@@ -4895,7 +4902,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>261</v>
       </c>
@@ -4916,7 +4923,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>281</v>
       </c>
@@ -4937,7 +4944,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>283</v>
       </c>
@@ -4958,7 +4965,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>285</v>
       </c>
@@ -4977,7 +4984,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>291</v>
       </c>
@@ -4996,7 +5003,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>291</v>
       </c>
@@ -5015,7 +5022,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>291</v>
       </c>
@@ -5036,7 +5043,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>291</v>
       </c>
@@ -5055,7 +5062,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>288</v>
       </c>
@@ -5074,7 +5081,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>288</v>
       </c>
@@ -5093,7 +5100,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>288</v>
       </c>
@@ -5114,7 +5121,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>288</v>
       </c>
@@ -5133,7 +5140,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>305</v>
       </c>
@@ -5150,7 +5157,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>305</v>
       </c>
@@ -5171,7 +5178,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>307</v>
       </c>
@@ -5192,7 +5199,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>307</v>
       </c>
@@ -5211,7 +5218,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>315</v>
       </c>
@@ -5230,7 +5237,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>318</v>
       </c>
@@ -5249,7 +5256,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>320</v>
       </c>
@@ -5266,7 +5273,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>322</v>
       </c>
@@ -5285,7 +5292,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>322</v>
       </c>
@@ -5306,7 +5313,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>322</v>
       </c>
@@ -5327,7 +5334,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>322</v>
       </c>
@@ -5346,7 +5353,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>322</v>
       </c>
@@ -5367,7 +5374,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>322</v>
       </c>
@@ -5388,7 +5395,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>322</v>
       </c>
@@ -5409,7 +5416,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>336</v>
       </c>
@@ -5428,7 +5435,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>777</v>
       </c>
@@ -5449,7 +5456,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>777</v>
       </c>
@@ -5470,7 +5477,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>338</v>
       </c>
@@ -5489,7 +5496,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>338</v>
       </c>
@@ -5508,7 +5515,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>338</v>
       </c>
@@ -5529,7 +5536,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>352</v>
       </c>
@@ -5548,7 +5555,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>352</v>
       </c>
@@ -5569,7 +5576,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>352</v>
       </c>
@@ -5590,7 +5597,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>352</v>
       </c>
@@ -5611,7 +5618,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>352</v>
       </c>
@@ -5632,7 +5639,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>352</v>
       </c>
@@ -5653,7 +5660,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>348</v>
       </c>
@@ -5676,7 +5683,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>367</v>
       </c>
@@ -5697,7 +5704,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>370</v>
       </c>
@@ -5718,7 +5725,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>377</v>
       </c>
@@ -5735,7 +5742,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>377</v>
       </c>
@@ -5752,7 +5759,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>377</v>
       </c>
@@ -5771,7 +5778,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>381</v>
       </c>
@@ -5792,7 +5799,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>381</v>
       </c>
@@ -5811,7 +5818,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>384</v>
       </c>
@@ -5834,7 +5841,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>390</v>
       </c>
@@ -5853,7 +5860,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>393</v>
       </c>
@@ -5870,7 +5877,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>395</v>
       </c>
@@ -5891,7 +5898,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>398</v>
       </c>
@@ -5910,7 +5917,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>398</v>
       </c>
@@ -5931,7 +5938,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>398</v>
       </c>
@@ -5952,7 +5959,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>398</v>
       </c>
@@ -5971,7 +5978,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>408</v>
       </c>
@@ -5990,7 +5997,7 @@
       <c r="F157" s="2"/>
       <c r="G157" s="11"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>411</v>
       </c>
@@ -6011,7 +6018,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>414</v>
       </c>
@@ -6030,7 +6037,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>416</v>
       </c>
@@ -6049,7 +6056,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>419</v>
       </c>
@@ -6070,7 +6077,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>423</v>
       </c>
@@ -6091,7 +6098,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>782</v>
       </c>
@@ -6108,7 +6115,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>783</v>
       </c>
@@ -6129,7 +6136,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>427</v>
       </c>
@@ -6152,7 +6159,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>432</v>
       </c>
@@ -6173,7 +6180,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>432</v>
       </c>
@@ -6196,7 +6203,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>440</v>
       </c>
@@ -6215,7 +6222,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>442</v>
       </c>
@@ -6238,7 +6245,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>442</v>
       </c>
@@ -6255,7 +6262,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>442</v>
       </c>
@@ -6274,7 +6281,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>445</v>
       </c>
@@ -6295,7 +6302,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>445</v>
       </c>
@@ -6312,7 +6319,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>448</v>
       </c>
@@ -6333,7 +6340,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>452</v>
       </c>
@@ -6354,7 +6361,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>455</v>
       </c>
@@ -6375,7 +6382,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>455</v>
       </c>
@@ -6392,7 +6399,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>784</v>
       </c>
@@ -6413,7 +6420,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>779</v>
       </c>
@@ -6434,7 +6441,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>461</v>
       </c>
@@ -6453,7 +6460,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>463</v>
       </c>
@@ -6474,7 +6481,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>463</v>
       </c>
@@ -6493,7 +6500,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>463</v>
       </c>
@@ -6512,7 +6519,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>463</v>
       </c>
@@ -6531,7 +6538,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>778</v>
       </c>
@@ -6552,7 +6559,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>468</v>
       </c>
@@ -6569,7 +6576,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>468</v>
       </c>
@@ -6590,7 +6597,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>468</v>
       </c>
@@ -6611,7 +6618,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>477</v>
       </c>
@@ -6630,7 +6637,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>477</v>
       </c>
@@ -6651,7 +6658,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>482</v>
       </c>
@@ -6666,7 +6673,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>484</v>
       </c>
@@ -6687,7 +6694,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>487</v>
       </c>
@@ -6704,7 +6711,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>487</v>
       </c>
@@ -6723,7 +6730,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>487</v>
       </c>
@@ -6742,7 +6749,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>492</v>
       </c>
@@ -6765,7 +6772,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>496</v>
       </c>
@@ -6782,7 +6789,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>503</v>
       </c>
@@ -6803,7 +6810,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>499</v>
       </c>
@@ -6824,7 +6831,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>506</v>
       </c>
@@ -6847,7 +6854,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>511</v>
       </c>
@@ -6866,7 +6873,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>511</v>
       </c>
@@ -6885,7 +6892,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>514</v>
       </c>
@@ -6904,7 +6911,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>519</v>
       </c>
@@ -6925,7 +6932,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>523</v>
       </c>
@@ -6946,7 +6953,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>527</v>
       </c>
@@ -6965,7 +6972,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>529</v>
       </c>
@@ -6986,7 +6993,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>531</v>
       </c>
@@ -7007,7 +7014,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>533</v>
       </c>
@@ -7024,7 +7031,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>533</v>
       </c>
@@ -7043,7 +7050,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>536</v>
       </c>
@@ -7064,7 +7071,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>538</v>
       </c>
@@ -7087,7 +7094,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>542</v>
       </c>
@@ -7104,7 +7111,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>544</v>
       </c>
@@ -7125,7 +7132,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>544</v>
       </c>
@@ -7146,7 +7153,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>550</v>
       </c>
@@ -7167,7 +7174,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>553</v>
       </c>
@@ -7186,7 +7193,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>553</v>
       </c>
@@ -7207,7 +7214,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>558</v>
       </c>
@@ -7224,7 +7231,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>561</v>
       </c>
@@ -7245,7 +7252,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>787</v>
       </c>
@@ -7262,7 +7269,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>568</v>
       </c>
@@ -7281,7 +7288,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>570</v>
       </c>
@@ -7300,7 +7307,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>571</v>
       </c>
@@ -7319,7 +7326,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>587</v>
       </c>
@@ -7340,7 +7347,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>584</v>
       </c>
@@ -7359,7 +7366,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>590</v>
       </c>
@@ -7380,7 +7387,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>780</v>
       </c>
@@ -7401,7 +7408,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>593</v>
       </c>
@@ -7420,7 +7427,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>593</v>
       </c>
@@ -7439,7 +7446,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>593</v>
       </c>
@@ -7458,7 +7465,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>593</v>
       </c>
@@ -7477,7 +7484,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>598</v>
       </c>
@@ -7496,7 +7503,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>600</v>
       </c>
@@ -7515,7 +7522,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>603</v>
       </c>
@@ -7536,7 +7543,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>603</v>
       </c>
@@ -7557,7 +7564,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>609</v>
       </c>
@@ -7578,7 +7585,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>613</v>
       </c>
@@ -7597,7 +7604,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>616</v>
       </c>
@@ -7618,7 +7625,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>616</v>
       </c>
@@ -7639,7 +7646,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>621</v>
       </c>
@@ -7662,7 +7669,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>625</v>
       </c>
@@ -7681,7 +7688,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>625</v>
       </c>
@@ -7700,7 +7707,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>625</v>
       </c>
@@ -7719,7 +7726,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>629</v>
       </c>
@@ -7738,7 +7745,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>629</v>
       </c>
@@ -7757,7 +7764,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>629</v>
       </c>
@@ -7774,7 +7781,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>629</v>
       </c>
@@ -7793,7 +7800,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>629</v>
       </c>
@@ -7812,7 +7819,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>629</v>
       </c>
@@ -7831,7 +7838,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>631</v>
       </c>
@@ -7850,7 +7857,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>631</v>
       </c>
@@ -7867,7 +7874,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>645</v>
       </c>
@@ -7886,7 +7893,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>643</v>
       </c>
@@ -7903,7 +7910,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>649</v>
       </c>
@@ -7922,7 +7929,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>781</v>
       </c>
@@ -7941,7 +7948,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>781</v>
       </c>
@@ -7960,7 +7967,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>781</v>
       </c>
@@ -7981,7 +7988,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>781</v>
       </c>
@@ -8002,7 +8009,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>781</v>
       </c>
@@ -8023,7 +8030,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>655</v>
       </c>
@@ -8039,7 +8046,7 @@
       </c>
       <c r="F261" s="2"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>660</v>
       </c>
@@ -8058,7 +8065,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="39" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" ht="39" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>789</v>
       </c>
@@ -8073,7 +8080,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>662</v>
       </c>
@@ -8094,7 +8101,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>666</v>
       </c>
@@ -8117,7 +8124,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>666</v>
       </c>
@@ -8138,7 +8145,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>673</v>
       </c>
@@ -8157,7 +8164,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>673</v>
       </c>
@@ -8174,7 +8181,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>677</v>
       </c>
@@ -8197,7 +8204,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>681</v>
       </c>
@@ -8216,7 +8223,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>686</v>
       </c>
@@ -8237,7 +8244,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>684</v>
       </c>
@@ -8256,7 +8263,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>684</v>
       </c>
@@ -8277,7 +8284,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>684</v>
       </c>
@@ -8296,7 +8303,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
         <v>684</v>
       </c>
@@ -8319,7 +8326,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
         <v>684</v>
       </c>
@@ -8338,7 +8345,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
         <v>684</v>
       </c>
@@ -8357,7 +8364,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
         <v>684</v>
       </c>
@@ -8378,7 +8385,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>700</v>
       </c>
@@ -8401,7 +8408,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>785</v>
       </c>
@@ -8422,7 +8429,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>785</v>
       </c>
@@ -8445,7 +8452,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>785</v>
       </c>
@@ -8464,7 +8471,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
         <v>785</v>
       </c>
@@ -8487,7 +8494,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
         <v>713</v>
       </c>
@@ -8566,7 +8573,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>718</v>
       </c>
@@ -8587,7 +8594,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>721</v>
       </c>
@@ -8608,7 +8615,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
         <v>721</v>
       </c>
@@ -8627,7 +8634,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
         <v>727</v>
       </c>
@@ -8646,7 +8653,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
         <v>729</v>
       </c>
@@ -8665,7 +8672,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
         <v>729</v>
       </c>
@@ -8684,7 +8691,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
         <v>738</v>
       </c>
@@ -8703,7 +8710,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>734</v>
       </c>
@@ -8724,7 +8731,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
         <v>734</v>
       </c>
@@ -8743,7 +8750,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
         <v>742</v>
       </c>
@@ -8764,7 +8771,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
         <v>747</v>
       </c>
@@ -8785,7 +8792,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
         <v>744</v>
       </c>
@@ -8804,7 +8811,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
         <v>744</v>
       </c>
@@ -8823,7 +8830,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
         <v>751</v>
       </c>
@@ -8842,7 +8849,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
         <v>753</v>
       </c>
@@ -8863,7 +8870,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
         <v>756</v>
       </c>
@@ -8886,7 +8893,9 @@
       <c r="D304" s="6">
         <v>19994106988</v>
       </c>
-      <c r="E304" s="2"/>
+      <c r="E304" s="2" t="s">
+        <v>796</v>
+      </c>
       <c r="F304" s="2"/>
       <c r="G304" s="10" t="s">
         <v>772</v>
@@ -8903,14 +8912,41 @@
       <c r="D305" s="6">
         <v>19989645385</v>
       </c>
-      <c r="E305" s="2"/>
+      <c r="E305" s="2" t="s">
+        <v>796</v>
+      </c>
       <c r="F305" s="2"/>
       <c r="G305" s="10" t="s">
         <v>772</v>
       </c>
     </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A306" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="C306" s="2"/>
+      <c r="D306" s="6">
+        <v>1938850768</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F306" s="2"/>
+      <c r="G306" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G303" xr:uid="{FD1FBE39-8056-EC4D-B03E-1E0887E8D8D8}"/>
+  <autoFilter ref="A1:G306" xr:uid="{FD1FBE39-8056-EC4D-B03E-1E0887E8D8D8}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Tapeçaria"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="B151" r:id="rId1" xr:uid="{4AB0140F-26E7-3941-86AF-41D13D5FBE3B}"/>
   </hyperlinks>

--- a/contatos_2M.xlsx
+++ b/contatos_2M.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gbrody/Documents/GitHub/duas-marias.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C73226D-37BA-7645-8205-A7A5F9E888F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B90F229-37E8-8F4E-B8CD-85687C6799EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{33D6FB68-6D31-1443-803B-688E6F2EB89B}"/>
   </bookViews>
@@ -2535,7 +2535,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2566,6 +2566,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2885,8 +2886,8 @@
   <dimension ref="A1:G306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G307" sqref="G307"/>
+      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A277" sqref="A1:G306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2922,7 +2923,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>767</v>
       </c>
@@ -2941,7 +2942,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2960,7 +2961,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -2979,7 +2980,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -3000,7 +3001,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -3023,7 +3024,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -3042,7 +3043,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -3063,7 +3064,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -3082,7 +3083,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -3103,7 +3104,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
@@ -3122,7 +3123,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -3143,7 +3144,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -3160,7 +3161,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>44</v>
       </c>
@@ -3179,7 +3180,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>47</v>
       </c>
@@ -3198,7 +3199,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>50</v>
       </c>
@@ -3221,7 +3222,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -3236,7 +3237,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
@@ -3255,7 +3256,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>50</v>
       </c>
@@ -3272,7 +3273,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
@@ -3289,7 +3290,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>60</v>
       </c>
@@ -3304,7 +3305,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>63</v>
       </c>
@@ -3325,7 +3326,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>63</v>
       </c>
@@ -3346,7 +3347,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>63</v>
       </c>
@@ -3365,7 +3366,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>63</v>
       </c>
@@ -3384,7 +3385,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>63</v>
       </c>
@@ -3399,7 +3400,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>75</v>
       </c>
@@ -3420,7 +3421,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>762</v>
       </c>
@@ -3443,7 +3444,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>83</v>
       </c>
@@ -3464,7 +3465,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>87</v>
       </c>
@@ -3485,7 +3486,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>90</v>
       </c>
@@ -3506,7 +3507,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>90</v>
       </c>
@@ -3527,7 +3528,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>96</v>
       </c>
@@ -3546,7 +3547,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>96</v>
       </c>
@@ -3569,7 +3570,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>96</v>
       </c>
@@ -3588,7 +3589,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>98</v>
       </c>
@@ -3607,7 +3608,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>101</v>
       </c>
@@ -3628,7 +3629,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>98</v>
       </c>
@@ -3647,7 +3648,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>98</v>
       </c>
@@ -3666,7 +3667,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>98</v>
       </c>
@@ -3685,7 +3686,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>98</v>
       </c>
@@ -3706,7 +3707,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>117</v>
       </c>
@@ -3723,7 +3724,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>120</v>
       </c>
@@ -3742,7 +3743,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>123</v>
       </c>
@@ -3765,7 +3766,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>128</v>
       </c>
@@ -3786,7 +3787,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>132</v>
       </c>
@@ -3807,7 +3808,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>132</v>
       </c>
@@ -3826,7 +3827,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>138</v>
       </c>
@@ -3845,7 +3846,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>774</v>
       </c>
@@ -3864,7 +3865,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>774</v>
       </c>
@@ -3883,7 +3884,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>775</v>
       </c>
@@ -3904,7 +3905,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>775</v>
       </c>
@@ -3923,7 +3924,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="26" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>773</v>
       </c>
@@ -3944,7 +3945,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="26" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>773</v>
       </c>
@@ -3965,7 +3966,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="26" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>773</v>
       </c>
@@ -3982,7 +3983,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>140</v>
       </c>
@@ -4001,7 +4002,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>140</v>
       </c>
@@ -4022,7 +4023,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>146</v>
       </c>
@@ -4041,7 +4042,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>146</v>
       </c>
@@ -4060,7 +4061,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>151</v>
       </c>
@@ -4083,7 +4084,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>151</v>
       </c>
@@ -4104,7 +4105,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>151</v>
       </c>
@@ -4123,7 +4124,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>151</v>
       </c>
@@ -4144,7 +4145,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>161</v>
       </c>
@@ -4165,7 +4166,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="26" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>168</v>
       </c>
@@ -4182,7 +4183,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>168</v>
       </c>
@@ -4197,7 +4198,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>171</v>
       </c>
@@ -4216,7 +4217,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>174</v>
       </c>
@@ -4237,7 +4238,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>178</v>
       </c>
@@ -4256,7 +4257,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>178</v>
       </c>
@@ -4279,7 +4280,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>184</v>
       </c>
@@ -4302,7 +4303,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>184</v>
       </c>
@@ -4323,7 +4324,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>184</v>
       </c>
@@ -4342,7 +4343,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>184</v>
       </c>
@@ -4381,7 +4382,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>202</v>
       </c>
@@ -4398,7 +4399,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>203</v>
       </c>
@@ -4417,7 +4418,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>203</v>
       </c>
@@ -4436,7 +4437,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>203</v>
       </c>
@@ -4455,7 +4456,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>203</v>
       </c>
@@ -4474,7 +4475,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>208</v>
       </c>
@@ -4495,7 +4496,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>212</v>
       </c>
@@ -4516,7 +4517,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>226</v>
       </c>
@@ -4537,7 +4538,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>229</v>
       </c>
@@ -4556,7 +4557,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>232</v>
       </c>
@@ -4577,7 +4578,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>239</v>
       </c>
@@ -4594,7 +4595,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>236</v>
       </c>
@@ -4611,7 +4612,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>241</v>
       </c>
@@ -4628,7 +4629,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="26" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>243</v>
       </c>
@@ -4647,7 +4648,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>246</v>
       </c>
@@ -4666,7 +4667,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>246</v>
       </c>
@@ -4685,7 +4686,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>246</v>
       </c>
@@ -4704,7 +4705,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>251</v>
       </c>
@@ -4723,7 +4724,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>251</v>
       </c>
@@ -4742,7 +4743,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>257</v>
       </c>
@@ -4763,7 +4764,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>261</v>
       </c>
@@ -4782,7 +4783,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>261</v>
       </c>
@@ -4803,7 +4804,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>261</v>
       </c>
@@ -4822,7 +4823,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>261</v>
       </c>
@@ -4843,7 +4844,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>261</v>
       </c>
@@ -4864,7 +4865,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>261</v>
       </c>
@@ -4883,7 +4884,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>261</v>
       </c>
@@ -4902,7 +4903,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>261</v>
       </c>
@@ -4923,7 +4924,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>281</v>
       </c>
@@ -4944,7 +4945,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>283</v>
       </c>
@@ -4965,7 +4966,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>285</v>
       </c>
@@ -4984,7 +4985,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>291</v>
       </c>
@@ -5003,7 +5004,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>291</v>
       </c>
@@ -5022,7 +5023,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>291</v>
       </c>
@@ -5043,7 +5044,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>291</v>
       </c>
@@ -5062,7 +5063,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>288</v>
       </c>
@@ -5081,7 +5082,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>288</v>
       </c>
@@ -5100,7 +5101,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>288</v>
       </c>
@@ -5121,7 +5122,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>288</v>
       </c>
@@ -5140,7 +5141,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>305</v>
       </c>
@@ -5157,7 +5158,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>305</v>
       </c>
@@ -5178,7 +5179,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>307</v>
       </c>
@@ -5199,7 +5200,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>307</v>
       </c>
@@ -5218,7 +5219,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>315</v>
       </c>
@@ -5237,7 +5238,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>318</v>
       </c>
@@ -5256,7 +5257,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>320</v>
       </c>
@@ -5273,7 +5274,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>322</v>
       </c>
@@ -5292,7 +5293,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>322</v>
       </c>
@@ -5313,7 +5314,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>322</v>
       </c>
@@ -5334,7 +5335,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>322</v>
       </c>
@@ -5353,7 +5354,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>322</v>
       </c>
@@ -5374,7 +5375,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>322</v>
       </c>
@@ -5395,7 +5396,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>322</v>
       </c>
@@ -5416,7 +5417,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>336</v>
       </c>
@@ -5435,7 +5436,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>777</v>
       </c>
@@ -5456,7 +5457,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>777</v>
       </c>
@@ -5477,7 +5478,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>338</v>
       </c>
@@ -5496,7 +5497,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>338</v>
       </c>
@@ -5515,7 +5516,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>338</v>
       </c>
@@ -5536,7 +5537,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>352</v>
       </c>
@@ -5555,7 +5556,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>352</v>
       </c>
@@ -5576,7 +5577,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>352</v>
       </c>
@@ -5597,7 +5598,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>352</v>
       </c>
@@ -5618,7 +5619,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>352</v>
       </c>
@@ -5639,7 +5640,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>352</v>
       </c>
@@ -5660,7 +5661,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>348</v>
       </c>
@@ -5683,7 +5684,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>367</v>
       </c>
@@ -5704,7 +5705,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>370</v>
       </c>
@@ -5725,7 +5726,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>377</v>
       </c>
@@ -5742,7 +5743,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>377</v>
       </c>
@@ -5759,7 +5760,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>377</v>
       </c>
@@ -5778,7 +5779,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>381</v>
       </c>
@@ -5799,7 +5800,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>381</v>
       </c>
@@ -5818,7 +5819,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>384</v>
       </c>
@@ -5841,7 +5842,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>390</v>
       </c>
@@ -5860,7 +5861,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" ht="26" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>393</v>
       </c>
@@ -5877,7 +5878,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>395</v>
       </c>
@@ -5898,7 +5899,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>398</v>
       </c>
@@ -5917,7 +5918,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>398</v>
       </c>
@@ -5938,7 +5939,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>398</v>
       </c>
@@ -5959,7 +5960,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>398</v>
       </c>
@@ -5997,7 +5998,7 @@
       <c r="F157" s="2"/>
       <c r="G157" s="11"/>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>411</v>
       </c>
@@ -6018,7 +6019,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>414</v>
       </c>
@@ -6037,7 +6038,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>416</v>
       </c>
@@ -6056,7 +6057,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>419</v>
       </c>
@@ -6077,7 +6078,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>423</v>
       </c>
@@ -6098,7 +6099,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>782</v>
       </c>
@@ -6115,7 +6116,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>783</v>
       </c>
@@ -6136,7 +6137,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>427</v>
       </c>
@@ -6159,7 +6160,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>432</v>
       </c>
@@ -6180,7 +6181,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>432</v>
       </c>
@@ -6203,7 +6204,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>440</v>
       </c>
@@ -6222,7 +6223,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>442</v>
       </c>
@@ -6245,7 +6246,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>442</v>
       </c>
@@ -6262,7 +6263,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>442</v>
       </c>
@@ -6281,7 +6282,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>445</v>
       </c>
@@ -6302,7 +6303,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>445</v>
       </c>
@@ -6319,7 +6320,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>448</v>
       </c>
@@ -6340,7 +6341,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>452</v>
       </c>
@@ -6361,7 +6362,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>455</v>
       </c>
@@ -6382,7 +6383,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>455</v>
       </c>
@@ -6399,7 +6400,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" ht="26" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>784</v>
       </c>
@@ -6420,7 +6421,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>779</v>
       </c>
@@ -6441,7 +6442,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>461</v>
       </c>
@@ -6460,7 +6461,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>463</v>
       </c>
@@ -6481,7 +6482,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>463</v>
       </c>
@@ -6500,7 +6501,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" ht="26" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>463</v>
       </c>
@@ -6519,7 +6520,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>463</v>
       </c>
@@ -6538,7 +6539,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>778</v>
       </c>
@@ -6559,7 +6560,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>468</v>
       </c>
@@ -6576,7 +6577,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>468</v>
       </c>
@@ -6597,7 +6598,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>468</v>
       </c>
@@ -6618,7 +6619,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>477</v>
       </c>
@@ -6637,7 +6638,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>477</v>
       </c>
@@ -6658,7 +6659,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>482</v>
       </c>
@@ -6673,7 +6674,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>484</v>
       </c>
@@ -6694,7 +6695,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>487</v>
       </c>
@@ -6711,7 +6712,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>487</v>
       </c>
@@ -6730,7 +6731,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>487</v>
       </c>
@@ -6749,7 +6750,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>492</v>
       </c>
@@ -6772,7 +6773,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>496</v>
       </c>
@@ -6789,7 +6790,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>503</v>
       </c>
@@ -6810,7 +6811,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>499</v>
       </c>
@@ -6831,7 +6832,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>506</v>
       </c>
@@ -6854,7 +6855,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>511</v>
       </c>
@@ -6873,7 +6874,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>511</v>
       </c>
@@ -6892,7 +6893,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>514</v>
       </c>
@@ -6911,7 +6912,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>519</v>
       </c>
@@ -6932,7 +6933,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>523</v>
       </c>
@@ -6953,7 +6954,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>527</v>
       </c>
@@ -6972,7 +6973,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>529</v>
       </c>
@@ -6993,7 +6994,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>531</v>
       </c>
@@ -7014,7 +7015,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>533</v>
       </c>
@@ -7031,7 +7032,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>533</v>
       </c>
@@ -7050,7 +7051,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>536</v>
       </c>
@@ -7071,7 +7072,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>538</v>
       </c>
@@ -7094,7 +7095,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>542</v>
       </c>
@@ -7111,7 +7112,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>544</v>
       </c>
@@ -7132,7 +7133,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>544</v>
       </c>
@@ -7153,7 +7154,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>550</v>
       </c>
@@ -7174,7 +7175,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>553</v>
       </c>
@@ -7193,7 +7194,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>553</v>
       </c>
@@ -7214,7 +7215,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>558</v>
       </c>
@@ -7231,7 +7232,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>561</v>
       </c>
@@ -7252,7 +7253,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>787</v>
       </c>
@@ -7269,7 +7270,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>568</v>
       </c>
@@ -7288,7 +7289,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>570</v>
       </c>
@@ -7307,7 +7308,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>571</v>
       </c>
@@ -7326,7 +7327,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>587</v>
       </c>
@@ -7347,7 +7348,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>584</v>
       </c>
@@ -7366,7 +7367,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>590</v>
       </c>
@@ -7387,7 +7388,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>780</v>
       </c>
@@ -7408,7 +7409,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>593</v>
       </c>
@@ -7427,7 +7428,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>593</v>
       </c>
@@ -7446,7 +7447,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>593</v>
       </c>
@@ -7465,7 +7466,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>593</v>
       </c>
@@ -7484,7 +7485,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>598</v>
       </c>
@@ -7503,7 +7504,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>600</v>
       </c>
@@ -7522,7 +7523,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>603</v>
       </c>
@@ -7543,7 +7544,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>603</v>
       </c>
@@ -7564,7 +7565,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>609</v>
       </c>
@@ -7585,7 +7586,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>613</v>
       </c>
@@ -7604,7 +7605,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>616</v>
       </c>
@@ -7625,7 +7626,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>616</v>
       </c>
@@ -7646,7 +7647,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>621</v>
       </c>
@@ -7669,7 +7670,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>625</v>
       </c>
@@ -7688,7 +7689,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>625</v>
       </c>
@@ -7707,7 +7708,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>625</v>
       </c>
@@ -7726,7 +7727,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>629</v>
       </c>
@@ -7745,7 +7746,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>629</v>
       </c>
@@ -7764,7 +7765,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>629</v>
       </c>
@@ -7781,7 +7782,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>629</v>
       </c>
@@ -7800,7 +7801,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>629</v>
       </c>
@@ -7819,7 +7820,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>629</v>
       </c>
@@ -7838,7 +7839,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>631</v>
       </c>
@@ -7857,7 +7858,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>631</v>
       </c>
@@ -7874,7 +7875,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>645</v>
       </c>
@@ -7893,7 +7894,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>643</v>
       </c>
@@ -7910,7 +7911,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>649</v>
       </c>
@@ -7929,7 +7930,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>781</v>
       </c>
@@ -7948,7 +7949,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>781</v>
       </c>
@@ -7967,7 +7968,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>781</v>
       </c>
@@ -7988,7 +7989,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>781</v>
       </c>
@@ -8009,7 +8010,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>781</v>
       </c>
@@ -8046,7 +8047,7 @@
       </c>
       <c r="F261" s="2"/>
     </row>
-    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>660</v>
       </c>
@@ -8065,7 +8066,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="39" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" ht="39" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>789</v>
       </c>
@@ -8080,7 +8081,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>662</v>
       </c>
@@ -8101,7 +8102,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>666</v>
       </c>
@@ -8124,7 +8125,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>666</v>
       </c>
@@ -8145,7 +8146,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>673</v>
       </c>
@@ -8164,7 +8165,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>673</v>
       </c>
@@ -8181,7 +8182,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>677</v>
       </c>
@@ -8204,7 +8205,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>681</v>
       </c>
@@ -8223,7 +8224,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>686</v>
       </c>
@@ -8244,7 +8245,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>684</v>
       </c>
@@ -8263,7 +8264,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>684</v>
       </c>
@@ -8284,7 +8285,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>684</v>
       </c>
@@ -8303,7 +8304,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
         <v>684</v>
       </c>
@@ -8326,7 +8327,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
         <v>684</v>
       </c>
@@ -8345,7 +8346,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
         <v>684</v>
       </c>
@@ -8364,7 +8365,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
         <v>684</v>
       </c>
@@ -8385,7 +8386,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>700</v>
       </c>
@@ -8408,7 +8409,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>785</v>
       </c>
@@ -8429,7 +8430,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>785</v>
       </c>
@@ -8452,7 +8453,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>785</v>
       </c>
@@ -8471,7 +8472,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
         <v>785</v>
       </c>
@@ -8573,134 +8574,134 @@
         <v>772</v>
       </c>
     </row>
-    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>720</v>
-      </c>
+        <v>792</v>
+      </c>
+      <c r="C288" s="2"/>
       <c r="D288" s="6">
-        <v>1938348079</v>
+        <v>19994106988</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>187</v>
+        <v>796</v>
       </c>
       <c r="F288" s="2"/>
       <c r="G288" s="10" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="C289" s="2" t="s">
-        <v>723</v>
-      </c>
+        <v>794</v>
+      </c>
+      <c r="C289" s="2"/>
       <c r="D289" s="6">
-        <v>19997630860</v>
+        <v>19989645385</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>724</v>
+        <v>796</v>
       </c>
       <c r="F289" s="2"/>
       <c r="G289" s="10" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="C290" s="2"/>
+      <c r="D290" s="6">
+        <v>1938850768</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F290" s="2"/>
+      <c r="G290" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A291" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="D291" s="6">
+        <v>1938348079</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F291" s="2"/>
+      <c r="G291" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A292" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="B290" s="2" t="s">
+      <c r="B292" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="D292" s="6">
+        <v>19997630860</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="F292" s="2"/>
+      <c r="G292" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A293" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B293" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="C290" s="2"/>
-      <c r="D290" s="6"/>
-      <c r="E290" s="2" t="s">
+      <c r="C293" s="2"/>
+      <c r="D293" s="6"/>
+      <c r="E293" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="F290" s="2" t="s">
+      <c r="F293" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="G290" s="10" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="2" t="s">
+      <c r="G293" s="10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A294" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="B291" s="2" t="s">
+      <c r="B294" s="2" t="s">
         <v>728</v>
-      </c>
-      <c r="C291" s="2"/>
-      <c r="D291" s="6">
-        <v>19997054080</v>
-      </c>
-      <c r="E291" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="F291" s="2"/>
-      <c r="G291" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="C292" s="2"/>
-      <c r="D292" s="6">
-        <v>3592480284</v>
-      </c>
-      <c r="E292" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="F292" s="2"/>
-      <c r="G292" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="C293" s="2"/>
-      <c r="D293" s="6">
-        <v>19974061580</v>
-      </c>
-      <c r="E293" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="F293" s="2"/>
-      <c r="G293" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A294" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>739</v>
       </c>
       <c r="C294" s="2"/>
       <c r="D294" s="6">
-        <v>19997892388</v>
+        <v>19997054080</v>
       </c>
       <c r="E294" s="2" t="s">
         <v>648</v>
@@ -8710,242 +8711,245 @@
         <v>772</v>
       </c>
     </row>
-    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" s="6">
-        <v>19992144704</v>
+        <v>3592480284</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="F295" s="2" t="s">
-        <v>737</v>
-      </c>
+        <v>731</v>
+      </c>
+      <c r="F295" s="2"/>
       <c r="G295" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="C296" s="2"/>
       <c r="D296" s="6">
-        <v>19992679775</v>
+        <v>19974061580</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="F296" s="2"/>
       <c r="G296" s="11" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C297" s="2"/>
       <c r="D297" s="6">
+        <v>19997892388</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="F297" s="2"/>
+      <c r="G297" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A298" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="C298" s="2"/>
+      <c r="D298" s="6">
+        <v>19992144704</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="G298" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A299" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="C299" s="2"/>
+      <c r="D299" s="6">
+        <v>19992679775</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="F299" s="2"/>
+      <c r="G299" s="12" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A300" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C300" s="2"/>
+      <c r="D300" s="6">
         <v>19975734486</v>
       </c>
-      <c r="E297" s="2" t="s">
+      <c r="E300" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="F297" s="2" t="s">
+      <c r="F300" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="G297" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A298" s="2" t="s">
+      <c r="G300" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A301" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="B298" s="2" t="s">
+      <c r="B301" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="C298" s="2" t="s">
+      <c r="C301" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="D298" s="6">
+      <c r="D301" s="6">
         <v>19993480608</v>
       </c>
-      <c r="E298" s="2" t="s">
+      <c r="E301" s="2" t="s">
         <v>750</v>
-      </c>
-      <c r="F298" s="2"/>
-      <c r="G298" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="B299" s="2"/>
-      <c r="C299" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="D299" s="6">
-        <v>19992837841</v>
-      </c>
-      <c r="E299" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="F299" s="2"/>
-      <c r="G299" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A300" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="B300" s="2"/>
-      <c r="C300" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="D300" s="6">
-        <v>19991857696</v>
-      </c>
-      <c r="E300" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="F300" s="2"/>
-      <c r="G300" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A301" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="C301" s="2"/>
-      <c r="D301" s="6">
-        <v>19991505521</v>
-      </c>
-      <c r="E301" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="F301" s="2"/>
       <c r="G301" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="C302" s="2"/>
+        <v>744</v>
+      </c>
+      <c r="B302" s="2"/>
+      <c r="C302" s="2" t="s">
+        <v>732</v>
+      </c>
       <c r="D302" s="6">
-        <v>19994915696</v>
+        <v>19992837841</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="F302" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="G302" s="10" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>745</v>
+      </c>
+      <c r="F302" s="2"/>
+      <c r="G302" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="C303" s="2"/>
-      <c r="D303" s="6"/>
-      <c r="E303" s="2"/>
+        <v>744</v>
+      </c>
+      <c r="B303" s="2"/>
+      <c r="C303" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="D303" s="6">
+        <v>19991857696</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>745</v>
+      </c>
       <c r="F303" s="2"/>
+      <c r="G303" t="s">
+        <v>772</v>
+      </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
-        <v>715</v>
+        <v>751</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>792</v>
+        <v>752</v>
       </c>
       <c r="C304" s="2"/>
       <c r="D304" s="6">
-        <v>19994106988</v>
+        <v>19991505521</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>796</v>
+        <v>234</v>
       </c>
       <c r="F304" s="2"/>
-      <c r="G304" s="10" t="s">
+      <c r="G304" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>715</v>
+        <v>753</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>794</v>
+        <v>754</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" s="6">
-        <v>19989645385</v>
+        <v>19994915696</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="F305" s="2"/>
+        <v>755</v>
+      </c>
+      <c r="F305" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="G305" s="10" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
-        <v>715</v>
+        <v>756</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>795</v>
+        <v>757</v>
       </c>
       <c r="C306" s="2"/>
-      <c r="D306" s="6">
-        <v>1938850768</v>
-      </c>
-      <c r="E306" s="2" t="s">
-        <v>397</v>
-      </c>
+      <c r="D306" s="6"/>
+      <c r="E306" s="2"/>
       <c r="F306" s="2"/>
-      <c r="G306" s="10" t="s">
-        <v>772</v>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G306" xr:uid="{FD1FBE39-8056-EC4D-B03E-1E0887E8D8D8}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Tapeçaria"/>
-      </filters>
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G306">
+      <sortCondition ref="A1:A306"/>
+    </sortState>
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="B151" r:id="rId1" xr:uid="{4AB0140F-26E7-3941-86AF-41D13D5FBE3B}"/>
